--- a/data/measurements/s22/summary.xlsx
+++ b/data/measurements/s22/summary.xlsx
@@ -198,7 +198,7 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="5" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -208,7 +208,7 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="5" borderId="0" numFmtId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
@@ -217,6 +217,12 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="5" borderId="0" numFmtId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyProtection="0">
@@ -933,7 +939,7 @@
       <c r="C15" s="1">
         <v>250</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <f>((C15-B15)/B15)</f>
         <v>0.041666666666666664</v>
       </c>
@@ -951,7 +957,7 @@
       <c r="C16" s="1">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <f>((C16-B16)/B16)</f>
         <v>0.080000000000000002</v>
       </c>
@@ -963,13 +969,13 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>180</v>
       </c>
       <c r="C17" s="1">
         <v>195</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <f>((C19-B19)/B19)</f>
         <v>0.17647058823529413</v>
       </c>
@@ -987,7 +993,7 @@
       <c r="C18" s="1">
         <v>45</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <f>((C17-B17)/B17)</f>
         <v>0.083333333333333329</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="C19" s="1">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <f>((C18-B18)/B18)</f>
         <v>0.15384615384615385</v>
       </c>
@@ -1023,7 +1029,7 @@
       <c r="C20" s="1">
         <v>40</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <f>((C20-B20)/B20)</f>
         <v>0.29032258064516131</v>
       </c>
@@ -1033,19 +1039,19 @@
     </row>
     <row r="21" ht="12.75">
       <c r="A21" s="1"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" ht="12.75">
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" ht="12.75">
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" ht="12.75">
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" ht="12.75">
-      <c r="D25" s="6"/>
+      <c r="D25" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E20">
